--- a/jaccard_sim6.xlsx
+++ b/jaccard_sim6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="jaccard_sim6.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -187,18 +187,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -216,7 +216,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -249,19 +249,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -279,10 +284,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.189121261758339"/>
-          <c:y val="0.0737681575228198"/>
-          <c:w val="0.75337232024829"/>
-          <c:h val="0.739479262966623"/>
+          <c:x val="0.18912126175833899"/>
+          <c:y val="7.3768157522819802E-2"/>
+          <c:w val="0.75337232024829004"/>
+          <c:h val="0.73947926296662303"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -305,6 +310,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>jaccard_sim6.tsv!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>jaccard_sim6.tsv!$B$53:$E$53</c:f>
@@ -318,10 +344,10 @@
                   <c:v>0.289216391086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.299722140977</c:v>
+                  <c:v>0.29972214097700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.297253033574</c:v>
+                  <c:v>0.29725303357400001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,6 +371,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>jaccard_sim6.tsv!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>jaccard_sim6.tsv!$B$54:$E$54</c:f>
@@ -352,16 +399,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.269876527079</c:v>
+                  <c:v>0.26987652707900001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.263187152563</c:v>
+                  <c:v>0.26318715256300002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.269248321273</c:v>
+                  <c:v>0.26924832127300002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.284922634041</c:v>
+                  <c:v>0.28492263404099999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,11 +425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140212184"/>
-        <c:axId val="-2141742536"/>
+        <c:axId val="268557312"/>
+        <c:axId val="350965696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140212184"/>
+        <c:axId val="268557312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,17 +455,17 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.471273971684196"/>
-              <c:y val="0.904601942469742"/>
+              <c:x val="0.47127397168419599"/>
+              <c:y val="0.90460194246974202"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141742536"/>
+        <c:crossAx val="350965696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -426,7 +473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141742536"/>
+        <c:axId val="350965696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -445,7 +492,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
-                  <a:t>Jiccard</a:t>
+                  <a:t>Jaccard</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW" sz="1200" baseline="0"/>
@@ -459,8 +506,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0179660708469835"/>
-              <c:y val="0.318041707165245"/>
+              <c:x val="1.7966070846983501E-2"/>
+              <c:y val="0.31804170716524499"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -469,7 +516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140212184"/>
+        <c:crossAx val="268557312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -480,7 +527,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
@@ -845,11 +892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
